--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1430,6 +1430,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1452,6 +1453,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1459,6 +1461,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1467,6 +1470,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1474,6 +1478,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1481,12 +1486,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1691,11 +1698,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2730,24 +2737,24 @@
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4175,13 +4182,13 @@
       <c r="C237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12" t="s">
+      <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="B238" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C238" s="8" t="s">
         <v>7</v>
       </c>
     </row>
